--- a/次期システム対応/doc/対象項目確認.xlsx
+++ b/次期システム対応/doc/対象項目確認.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24300" windowHeight="12945"/>
+    <workbookView windowWidth="24300" windowHeight="12945" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="② (2)" sheetId="7" r:id="rId1"/>
@@ -12,6 +12,10 @@
     <sheet name="⑫" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">⑪!$A$1:$E$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">⑫!$A$1:$E$17</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -187,31 +191,31 @@
     <t>Ｃａ－その他　　　　　　　　　　　　　　　　　</t>
   </si>
   <si>
+    <t>Ｃａ（ｍｇ／ｄｌ）－他　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>Ｃａ・共用基準範囲　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
     <t>FE</t>
   </si>
   <si>
-    <t>Ｃａ（ｍｇ／ｄｌ）－他　　　　　　　　　　　　</t>
-  </si>
-  <si>
-    <t>Ｃａ・共用基準範囲　　　　　　　　　　　　　　</t>
-  </si>
-  <si>
     <t>Ｆｅ　　　　　　　　　　　　　　　　　　　　　</t>
   </si>
   <si>
     <t>Ｆｅ　前　　　　　　　　　　　　　　　　　　　</t>
   </si>
   <si>
+    <t>Ｆｅ　後　　　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>Ｆｅ－その他　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>Ｆｅ・共用基準範囲　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
     <t>ALPIF</t>
-  </si>
-  <si>
-    <t>Ｆｅ　後　　　　　　　　　　　　　　　　　　　</t>
-  </si>
-  <si>
-    <t>Ｆｅ－その他　　　　　　　　　　　　　　　　　</t>
-  </si>
-  <si>
-    <t>Ｆｅ・共用基準範囲　　　　　　　　　　　　　　</t>
   </si>
   <si>
     <t>ＡＬＰ－その他　　　　　　　　　　　　　　　　</t>
@@ -303,10 +307,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -314,6 +318,72 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -333,82 +403,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,15 +428,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,14 +459,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,13 +479,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,13 +497,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,31 +515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,13 +533,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,19 +569,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,61 +653,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,6 +715,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -722,26 +735,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,6 +753,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -768,7 +772,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -777,13 +781,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -792,121 +796,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1637,7 +1641,7 @@
   <sheetPr/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -2379,7 +2383,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2879,10 +2883,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>56</v>
-      </c>
+    <row r="35" spans="2:5">
       <c r="B35">
         <v>7049</v>
       </c>
@@ -2901,7 +2902,7 @@
         <v>7059</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36">
         <v>4.2</v>
@@ -2915,7 +2916,7 @@
         <v>12933</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D37">
         <v>6.1</v>
@@ -2924,7 +2925,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
       <c r="B38">
         <v>435</v>
       </c>
@@ -2952,15 +2956,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>61</v>
-      </c>
+    <row r="40" spans="2:5">
       <c r="B40">
         <v>2839</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D40">
         <v>16</v>
@@ -2974,7 +2975,7 @@
         <v>7056</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -2988,7 +2989,7 @@
         <v>12950</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42">
         <v>16</v>
@@ -2997,7 +2998,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
       <c r="B43">
         <v>7024</v>
       </c>
@@ -3082,6 +3086,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E48"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
@@ -3095,8 +3100,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3352,6 +3357,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E17"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600"/>

--- a/次期システム対応/doc/対象項目確認.xlsx
+++ b/次期システム対応/doc/対象項目確認.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24300" windowHeight="12945" activeTab="2"/>
+    <workbookView windowWidth="24300" windowHeight="12525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="② (2)" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
   <si>
     <t>HNIKBN</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>Ｃａ　後　　　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>希釈マスタのどちらが有効なのかテストをして確認</t>
   </si>
   <si>
     <t>Ｃａ　後（ｍｇ／ｄｌ）　　　　　　　　　　　　</t>
@@ -307,10 +310,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -320,8 +323,61 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -337,36 +393,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,33 +407,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -428,14 +445,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,28 +466,19 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -479,7 +488,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,37 +536,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,19 +554,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,37 +578,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,7 +620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,19 +632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,7 +644,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,8 +718,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,8 +727,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,6 +748,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -753,17 +773,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -772,7 +781,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,144 +790,147 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -986,16 +998,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1004,7 +1016,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6067425" y="790575"/>
+          <a:off x="752475" y="8391525"/>
           <a:ext cx="4162425" cy="1114425"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -1136,16 +1148,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1154,7 +1166,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5562600" y="352425"/>
+          <a:off x="504825" y="3228975"/>
           <a:ext cx="4162425" cy="1114425"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -2380,13 +2392,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
@@ -2771,31 +2783,34 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
-      <c r="B27">
+    <row r="27" spans="2:7">
+      <c r="B27" s="2">
         <v>2834</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>7.1</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>0.2</v>
       </c>
+      <c r="G27" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28">
+      <c r="B28" s="2">
         <v>2834</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>7.1</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>4</v>
       </c>
     </row>
@@ -2804,7 +2819,7 @@
         <v>2835</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D29">
         <v>7.2</v>
@@ -2860,7 +2875,7 @@
         <v>3279</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D33">
         <v>2.1</v>
@@ -2870,30 +2885,30 @@
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34">
+      <c r="B34" s="2">
         <v>7049</v>
       </c>
-      <c r="C34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34">
+      <c r="C34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="2">
         <v>4.1</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35">
+      <c r="B35" s="2">
         <v>7049</v>
       </c>
-      <c r="C35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35">
+      <c r="C35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="2">
         <v>4.1</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>4</v>
       </c>
     </row>
@@ -2902,7 +2917,7 @@
         <v>7059</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D36">
         <v>4.2</v>
@@ -2916,7 +2931,7 @@
         <v>12933</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D37">
         <v>6.1</v>
@@ -2927,13 +2942,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B38">
         <v>435</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D38">
         <v>16</v>
@@ -2947,7 +2962,7 @@
         <v>2539</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D39">
         <v>16</v>
@@ -2961,7 +2976,7 @@
         <v>2839</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D40">
         <v>16</v>
@@ -2975,7 +2990,7 @@
         <v>7056</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -2989,7 +3004,7 @@
         <v>12950</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D42">
         <v>16</v>
@@ -3000,13 +3015,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>7024</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D43">
         <v>30</v>
@@ -3020,7 +3035,7 @@
         <v>13067</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D44">
         <v>15</v>
@@ -3034,7 +3049,7 @@
         <v>13156</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D45">
         <v>15</v>
@@ -3048,7 +3063,7 @@
         <v>13306</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D46">
         <v>15</v>
@@ -3062,7 +3077,7 @@
         <v>13370</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D47">
         <v>15</v>
@@ -3076,7 +3091,7 @@
         <v>13605</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D48">
         <v>15</v>
@@ -3100,8 +3115,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3145,13 +3160,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3165,7 +3180,7 @@
         <v>421</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>131</v>
@@ -3179,7 +3194,7 @@
         <v>1001</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3193,7 +3208,7 @@
         <v>2531</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>131</v>
@@ -3207,7 +3222,7 @@
         <v>2831</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7">
         <v>130</v>
@@ -3221,7 +3236,7 @@
         <v>7003</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <v>80</v>
@@ -3235,7 +3250,7 @@
         <v>7067</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9">
         <v>100</v>
@@ -3249,7 +3264,7 @@
         <v>7067</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10">
         <v>100</v>
@@ -3263,7 +3278,7 @@
         <v>11215</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3277,7 +3292,7 @@
         <v>11216</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3291,7 +3306,7 @@
         <v>11221</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -3305,7 +3320,7 @@
         <v>11222</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3319,7 +3334,7 @@
         <v>12398</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3333,7 +3348,7 @@
         <v>12930</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D16">
         <v>131</v>
@@ -3347,7 +3362,7 @@
         <v>900101</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D17">
         <v>10</v>
@@ -3360,7 +3375,7 @@
   <autoFilter ref="A1:E17"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3382,28 +3397,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3672,7 +3687,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
